--- a/source/skill.xlsx
+++ b/source/skill.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\JiLueHelper\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F03A38-6404-4AFA-81C1-9369C857C37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4049D29C-94DB-4FD4-870C-052E4DD11C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="武将技能" sheetId="1" r:id="rId1"/>
+    <sheet name="左幽技能" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$452</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">武将技能!$A$1:$I$452</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="1223">
   <si>
     <t>武将</t>
   </si>
@@ -2808,6 +2809,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>“奇才”；方片</t>
@@ -2824,6 +2826,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>权衡”；黑桃</t>
@@ -2840,6 +2843,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>强袭</t>
@@ -2856,6 +2860,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；梅花</t>
@@ -2872,6 +2877,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>“齐射</t>
@@ -2888,6 +2894,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -3883,12 +3890,132 @@
     <t>当你受到伤害后，若你有手牌，你可以弃置所有手牌，然后防止此伤害；若你没有手牌，你可以翻面，然后将手牌数补至体力上限。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>皮肤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤鸣剑影</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊鸿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定技，你跳过判定阶段和弃牌阶段。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>次元战姬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定技，你使用牌无次数和距离限制。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰羽凰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升华</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定技，你造成的属性伤害+1。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红尘炼心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨染</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定技，你使用的黑色牌不能被其他角色响应。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠骨柔情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定技，回合开始时，你随机获得一个你已拥有的女性武将的技能。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>倩女幽魂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂牵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌阶段，你可以与一名其他角色交换手牌、体力上限或体力，每项限一次。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄周梦蝶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦蝶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你受到伤害后，你可以令两名角色交换你指定的一个技能。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿野仙踪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>破晓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定技，回合开始时，令你的限定技视为未发动过。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>光影相生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定技，游戏开始时，你选择并获得至多两个你拥有的其他左幽皮肤技能。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3899,12 +4026,14 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3915,11 +4044,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3948,7 +4086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3968,6 +4106,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4247,8 +4388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="I455" sqref="I455"/>
+    <sheetView topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="G461" sqref="G461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17578,4 +17719,134 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70710F54-B317-4603-A1D4-8AFDC61592E8}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>